--- a/data/trans_camb/P16A10-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A10-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P16A10-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A10-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,49</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,9</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,33; 5,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,38; 6,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,22; 8,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,97; 2,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,2; 6,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,62; 7,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,39; 3,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,35; 4,73</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,94; 6,78</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,08%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,74%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>122,66%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,31%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,58%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,88%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,1%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,39%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,81; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,65; 738,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,16; 1014,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,71; 113,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,23; 179,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,05; 244,02</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,12; 116,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,86; 173,16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,2; 251,68</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,19</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,34</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,91; 1,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,11; 3,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,06; 3,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,52; 3,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,54; 5,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,62; 4,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,81; 2,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,71; 3,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,45; 3,3</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,4%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,42%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,9%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,25%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,94%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,8%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,01%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,34%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,35%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,61; 36,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,06; 76,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,17; 77,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,4; 100,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,37; 151,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,94; 124,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,28; 43,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,42; 73,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,6; 68,62</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,31</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,98; 1,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,47; 1,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,95; -0,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,68; 1,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,27; 1,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,6; 1,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,4; 0,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,72; 1,34</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,48; -0,07</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,15%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,1%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,89%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,72%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,58%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,77%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,67%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,36%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,88%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,59; 23,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,21; 39,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,11; -5,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,48; 32,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,32; 41,79</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,0; 26,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,7; 11,82</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,68; 27,37</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,51; -0,94</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,07</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,05; 1,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,78; 3,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,88; 3,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,52; 0,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,57; 3,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,32; 1,04</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,74; 0,79</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,07; 2,37</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,81; 1,68</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,78%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,1%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,58%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,21%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,67%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,11%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,77%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,79%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,29%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,72; 36,94</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,4; 74,08</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,25; 89,8</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,75; 19,99</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,11; 88,61</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,39; 28,63</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,93; 18,14</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,27; 56,4</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,82; 39,5</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,85</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,2; 4,01</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,62; 3,08</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,07; 3,71</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,47; 1,4</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,87; 1,13</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,82; 1,89</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,91; 2,1</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,44; 1,41</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,38; 2,18</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,91%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,46%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,91%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,23%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,16%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,52%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,59%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,64%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,69; 107,26</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,81; 85,87</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,54; 97,86</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,42; 31,2</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,12; 26,75</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,87; 43,9</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,35; 44,73</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,36; 32,32</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,34; 50,85</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,19</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,28; 1,0</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,63; 1,66</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,61; 1,45</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,6; 0,55</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,08; 1,2</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,17; 0,9</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,0; 0,49</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,42; 1,16</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,58; 0,95</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,51%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,54%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,61%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,3%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,93%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,53%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,4; 20,51</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,59; 33,57</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,94; 29,82</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,38; 11,94</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,71; 24,56</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,65; 18,62</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,56; 9,7</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,41; 22,92</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,26; 19,18</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A10-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A10-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-0,79</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,9</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1,11</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0,51</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1,57</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1,77</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-0,14</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>1,23</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,94</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,28</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-2,49</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-1,11</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>2,13</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-0,61</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,43</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>1,44</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 5,41</t>
+          <t>-3,22; 1,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 6,25</t>
+          <t>-1,6; 3,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 8,17</t>
+          <t>-1,19; 3,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,97; 2,95</t>
+          <t>-1,89; 2,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 6,26</t>
+          <t>-0,91; 4,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 7,34</t>
+          <t>-0,35; 3,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 3,05</t>
+          <t>-1,81; 1,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 4,73</t>
+          <t>-0,77; 3,14</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 6,78</t>
+          <t>-0,03; 3,21</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>46,08%</t>
+          <t>-14,15%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>72,74%</t>
+          <t>16,06%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>122,66%</t>
+          <t>19,9%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-37,31%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-16,58%</t>
+          <t>30,24%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>31,88%</t>
+          <t>34,15%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-13,1%</t>
+          <t>-2,67%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>9,35%</t>
+          <t>22,87%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>62,39%</t>
+          <t>26,82%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-77,81; —</t>
+          <t>-46,85; 32,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-69,65; 738,97</t>
+          <t>-23,43; 78,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-48,16; 1014,39</t>
+          <t>-16,93; 78,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-87,71; 113,44</t>
+          <t>-31,85; 74,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-81,23; 179,84</t>
+          <t>-15,87; 102,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-35,05; 244,02</t>
+          <t>-5,59; 99,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-68,12; 116,67</t>
+          <t>-29,45; 33,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-52,86; 173,16</t>
+          <t>-12,65; 67,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-16,2; 251,68</t>
+          <t>-2,12; 68,68</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,19</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>-2,8</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>-1,81</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 1,61</t>
+          <t>-2,98; 1,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 3,91</t>
+          <t>-2,47; 1,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 3,61</t>
+          <t>-5,26; -0,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 3,73</t>
+          <t>-2,68; 1,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 5,27</t>
+          <t>-2,27; 1,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 4,6</t>
+          <t>-2,64; 1,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 2,01</t>
+          <t>-2,4; 0,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 3,53</t>
+          <t>-1,72; 1,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 3,3</t>
+          <t>-3,41; -0,57</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-19,4%</t>
+          <t>-19,15%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,42%</t>
+          <t>-5,1%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,9%</t>
+          <t>-46,47%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,25%</t>
+          <t>-9,72%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>42,94%</t>
+          <t>-5,58%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>37,8%</t>
+          <t>-12,03%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-1,01%</t>
+          <t>-14,67%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25,34%</t>
+          <t>-5,36%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>24,35%</t>
+          <t>-31,64%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-51,61; 36,21</t>
+          <t>-43,59; 23,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-29,06; 76,54</t>
+          <t>-35,21; 39,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-27,17; 77,87</t>
+          <t>-72,33; -17,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-28,4; 100,79</t>
+          <t>-40,48; 32,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,37; 151,44</t>
+          <t>-36,32; 41,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,94; 124,3</t>
+          <t>-39,38; 25,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-29,28; 43,11</t>
+          <t>-36,7; 11,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-13,42; 73,29</t>
+          <t>-26,68; 27,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 68,62</t>
+          <t>-54,35; -12,08</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,04</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,31</t>
+          <t>-0,47</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 1,08</t>
+          <t>-3,05; 1,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 1,87</t>
+          <t>-1,78; 3,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,95; -0,25</t>
+          <t>-1,16; 3,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 1,41</t>
+          <t>-3,52; 0,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 1,81</t>
+          <t>-1,57; 3,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 1,09</t>
+          <t>-4,3; 0,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 0,56</t>
+          <t>-2,74; 0,79</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 1,34</t>
+          <t>-1,07; 2,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,48; -0,07</t>
+          <t>-2,64; 1,21</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-19,15%</t>
+          <t>-11,78%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-5,1%</t>
+          <t>14,1%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-33,89%</t>
+          <t>21,83%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-9,72%</t>
+          <t>-26,21%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-5,58%</t>
+          <t>15,67%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-10,77%</t>
+          <t>-33,81%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-14,67%</t>
+          <t>-18,77%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-5,36%</t>
+          <t>14,79%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-22,88%</t>
+          <t>-9,15%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-43,59; 23,51</t>
+          <t>-46,72; 36,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-35,21; 39,22</t>
+          <t>-26,4; 74,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-55,11; -5,44</t>
+          <t>-18,77; 81,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-40,48; 32,79</t>
+          <t>-55,75; 19,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-36,32; 41,79</t>
+          <t>-28,11; 88,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-39,0; 26,03</t>
+          <t>-67,83; 9,16</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-36,7; 11,82</t>
+          <t>-43,93; 18,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-26,68; 27,37</t>
+          <t>-18,27; 56,4</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-38,51; -0,94</t>
+          <t>-42,79; 26,45</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,63</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 1,55</t>
+          <t>-0,2; 4,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 3,03</t>
+          <t>-0,62; 3,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 3,83</t>
+          <t>-0,14; 3,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 0,76</t>
+          <t>-2,47; 1,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 3,4</t>
+          <t>-2,87; 1,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 1,04</t>
+          <t>-2,3; 1,59</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 0,79</t>
+          <t>-0,91; 2,1</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 2,37</t>
+          <t>-1,44; 1,41</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 1,68</t>
+          <t>-0,64; 2,01</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-11,78%</t>
+          <t>38,91%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>14,1%</t>
+          <t>23,46%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>26,58%</t>
+          <t>36,77%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-26,21%</t>
+          <t>-9,23%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>15,67%</t>
+          <t>-17,16%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-21,11%</t>
+          <t>-5,89%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-18,77%</t>
+          <t>11,59%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>14,79%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>12,22%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-46,72; 36,94</t>
+          <t>-4,69; 107,26</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-26,4; 74,08</t>
+          <t>-12,81; 85,87</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-15,25; 89,8</t>
+          <t>-3,82; 93,45</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-55,75; 19,99</t>
+          <t>-37,42; 31,2</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-28,11; 88,61</t>
+          <t>-45,12; 26,75</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-53,39; 28,63</t>
+          <t>-34,04; 35,9</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-43,93; 18,14</t>
+          <t>-16,35; 44,73</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-18,27; 56,4</t>
+          <t>-24,36; 32,32</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-29,82; 39,5</t>
+          <t>-10,69; 45,67</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>-0,21</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 4,01</t>
+          <t>-1,28; 1,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 3,08</t>
+          <t>-0,63; 1,66</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 3,71</t>
+          <t>-1,38; 1,07</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 1,4</t>
+          <t>-1,6; 0,55</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 1,13</t>
+          <t>-1,08; 1,2</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 1,89</t>
+          <t>-1,58; 0,61</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 2,1</t>
+          <t>-1,0; 0,49</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 1,41</t>
+          <t>-0,42; 1,16</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 2,18</t>
+          <t>-1,13; 0,58</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>38,91%</t>
+          <t>-2,51%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>23,46%</t>
+          <t>10,54%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>39,91%</t>
+          <t>-0,36%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-9,23%</t>
+          <t>-9,3%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-17,16%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-0,52%</t>
+          <t>-7,3%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>11,59%</t>
+          <t>-5,93%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>16,64%</t>
+          <t>-3,9%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 107,26</t>
+          <t>-21,4; 20,51</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-12,81; 85,87</t>
+          <t>-10,59; 33,57</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 97,86</t>
+          <t>-23,51; 21,42</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-37,42; 31,2</t>
+          <t>-27,38; 11,94</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-45,12; 26,75</t>
+          <t>-18,71; 24,56</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-27,87; 43,9</t>
+          <t>-27,23; 12,29</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-16,35; 44,73</t>
+          <t>-17,56; 9,7</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-24,36; 32,32</t>
+          <t>-7,41; 22,92</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 50,85</t>
+          <t>-19,6; 11,72</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-0,14</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,57</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,47</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-0,49</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0,09</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-0,05</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>-0,32</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>0,33</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>0,19</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-1,28; 1,0</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-0,63; 1,66</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-0,61; 1,45</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-1,6; 0,55</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-1,08; 1,2</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-1,17; 0,9</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-1,0; 0,49</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-0,42; 1,16</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-0,58; 0,95</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-2,51%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>10,54%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>8,61%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-9,3%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>1,75%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-1,0%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>-5,93%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>6,09%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>3,53%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-21,4; 20,51</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-10,59; 33,57</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-9,94; 29,82</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-27,38; 11,94</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-18,71; 24,56</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-19,65; 18,62</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-17,56; 9,7</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-7,41; 22,92</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-10,26; 19,18</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P16A10-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A10-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 1,35</t>
+          <t>-3,32; 1,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 3,32</t>
+          <t>-1,63; 3,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 3,37</t>
+          <t>-1,34; 3,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 2,95</t>
+          <t>-2,06; 2,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 4,24</t>
+          <t>-1,16; 4,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 3,77</t>
+          <t>-0,49; 3,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 1,56</t>
+          <t>-1,85; 1,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 3,14</t>
+          <t>-0,62; 3,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 3,21</t>
+          <t>-0,12; 3,03</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-46,85; 32,44</t>
+          <t>-48,18; 32,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-23,43; 78,29</t>
+          <t>-24,91; 76,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-16,93; 78,52</t>
+          <t>-18,72; 76,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-31,85; 74,37</t>
+          <t>-30,91; 68,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-15,87; 102,6</t>
+          <t>-20,85; 107,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 99,61</t>
+          <t>-8,47; 93,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-29,45; 33,85</t>
+          <t>-29,29; 31,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-12,65; 67,63</t>
+          <t>-10,5; 70,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 68,68</t>
+          <t>-2,13; 68,89</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 1,08</t>
+          <t>-3,21; 1,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 1,87</t>
+          <t>-2,34; 1,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,26; -0,89</t>
+          <t>-5,31; -0,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 1,41</t>
+          <t>-2,7; 1,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 1,81</t>
+          <t>-2,56; 1,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 1,02</t>
+          <t>-2,43; 0,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 0,56</t>
+          <t>-2,4; 0,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 1,34</t>
+          <t>-1,84; 1,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,41; -0,57</t>
+          <t>-3,48; -0,45</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-43,59; 23,51</t>
+          <t>-46,23; 24,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-35,21; 39,22</t>
+          <t>-33,23; 36,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-72,33; -17,14</t>
+          <t>-71,1; -17,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-40,48; 32,79</t>
+          <t>-42,1; 34,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-36,32; 41,79</t>
+          <t>-41,11; 38,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-39,38; 25,0</t>
+          <t>-37,47; 24,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-36,7; 11,82</t>
+          <t>-35,91; 13,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-26,68; 27,37</t>
+          <t>-28,24; 23,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-54,35; -12,08</t>
+          <t>-53,45; -10,07</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 1,55</t>
+          <t>-2,96; 1,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 3,03</t>
+          <t>-1,56; 3,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 3,51</t>
+          <t>-1,07; 3,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 0,76</t>
+          <t>-3,42; 0,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 3,4</t>
+          <t>-1,48; 3,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 0,47</t>
+          <t>-4,44; 0,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 0,79</t>
+          <t>-2,55; 0,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 2,37</t>
+          <t>-0,87; 2,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 1,21</t>
+          <t>-2,55; 1,18</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-46,72; 36,94</t>
+          <t>-45,41; 44,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-26,4; 74,08</t>
+          <t>-23,59; 81,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-18,77; 81,54</t>
+          <t>-16,61; 86,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-55,75; 19,99</t>
+          <t>-57,72; 20,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-28,11; 88,61</t>
+          <t>-25,5; 82,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-67,83; 9,16</t>
+          <t>-69,93; 8,44</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-43,93; 18,14</t>
+          <t>-43,41; 16,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-18,27; 56,4</t>
+          <t>-14,46; 61,99</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-42,79; 26,45</t>
+          <t>-42,79; 25,1</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 4,01</t>
+          <t>-0,06; 4,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 3,08</t>
+          <t>-0,78; 2,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 3,55</t>
+          <t>-0,06; 3,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 1,4</t>
+          <t>-2,56; 1,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 1,13</t>
+          <t>-3,19; 0,88</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 1,59</t>
+          <t>-2,39; 1,65</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 2,1</t>
+          <t>-0,88; 1,88</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 1,41</t>
+          <t>-1,33; 1,37</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 2,01</t>
+          <t>-0,76; 1,88</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 107,26</t>
+          <t>-1,53; 113,42</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-12,81; 85,87</t>
+          <t>-14,04; 75,82</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 93,45</t>
+          <t>-1,93; 101,17</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-37,42; 31,2</t>
+          <t>-40,05; 33,69</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-45,12; 26,75</t>
+          <t>-47,74; 20,08</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-34,04; 35,9</t>
+          <t>-35,59; 36,71</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-16,35; 44,73</t>
+          <t>-16,72; 41,74</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-24,36; 32,32</t>
+          <t>-23,44; 32,03</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-10,69; 45,67</t>
+          <t>-13,07; 42,25</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 1,0</t>
+          <t>-1,2; 1,01</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 1,66</t>
+          <t>-0,57; 1,62</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 1,07</t>
+          <t>-1,42; 1,06</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 0,55</t>
+          <t>-1,56; 0,53</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 1,2</t>
+          <t>-1,06; 1,17</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 0,61</t>
+          <t>-1,71; 0,57</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 0,49</t>
+          <t>-1,08; 0,46</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 1,16</t>
+          <t>-0,44; 1,16</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 0,58</t>
+          <t>-1,09; 0,59</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-21,4; 20,51</t>
+          <t>-20,75; 21,11</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-10,59; 33,57</t>
+          <t>-8,99; 34,73</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-23,51; 21,42</t>
+          <t>-24,63; 21,54</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-27,38; 11,94</t>
+          <t>-26,84; 11,11</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-18,71; 24,56</t>
+          <t>-18,37; 23,83</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-27,23; 12,29</t>
+          <t>-28,83; 11,78</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-17,56; 9,7</t>
+          <t>-18,91; 9,16</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 22,92</t>
+          <t>-7,72; 23,62</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-19,6; 11,72</t>
+          <t>-18,75; 11,46</t>
         </is>
       </c>
     </row>
